--- a/output/page_8.xlsx
+++ b/output/page_8.xlsx
@@ -7,15 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Page 1 - Table 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Page 1 - Table 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>— ap
 2NDL 3/16"G.</t>
@@ -44,6 +43,9 @@
   </si>
   <si>
     <t>AN</t>
+  </si>
+  <si>
+    <t>1/4” BARTACK =&lt;.</t>
   </si>
   <si>
     <t>11</t>
@@ -425,20 +427,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,131 +450,157 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A4:C4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <f>&lt;.
+4/</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:A6"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/page_8.xlsx
+++ b/output/page_8.xlsx
@@ -7,86 +7,96 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="page_8 - Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="page_8 - Table 2" sheetId="2" r:id="rId2"/>
+    <sheet name="page_8 - Table 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t xml:space="preserve"> MASTER PACKAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WesternGlove Centric8 PROD                             M12225BVS563:KONRAD                         CONSTRUCTION SKETCH DETAILS                                 MASTER</t>
+  </si>
   <si>
     <t>— ap
 2NDL 3/16"G.</t>
   </si>
   <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>1 5/8"</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>2NDL</t>
+  </si>
+  <si>
+    <t>1/4M</t>
+  </si>
+  <si>
+    <t>4/</t>
+  </si>
+  <si>
+    <t>1/4” BARTACK</t>
+  </si>
+  <si>
     <t>INDL EDGESTITCH
-—</t>
-  </si>
-  <si>
-    <t>1 5/8"
-11
-——
-i!
-it
-2NDL
-1/4M
-=&lt;.</t>
-  </si>
-  <si>
-    <t>1 5/8"</t>
-  </si>
-  <si>
-    <t>11
-i!
-it</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>1/4” BARTACK =&lt;.</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>INDL EDGESTITCH</t>
-  </si>
-  <si>
-    <t>5 1/2" BELOW EDGE OF</t>
+5 1/2" BELOW EDGE OF
+SCOOP PKT</t>
   </si>
   <si>
     <t>i
+i
 i</t>
   </si>
   <si>
-    <t>SCOOP PKT</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>3/8"
-BARTACK</t>
-  </si>
-  <si>
-    <t>if</t>
+    <t>3/8"</t>
+  </si>
+  <si>
+    <t>if
+i</t>
   </si>
   <si>
     <t>BARTACK</t>
-  </si>
-  <si>
-    <t>it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -128,8 +138,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -427,181 +443,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A2:Z2"/>
+    <mergeCell ref="A4:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <f>&lt;.
-4/</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A13:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>